--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8318_contains.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8318_contains.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262F7B1-76EA-4607-A135-2288BF6101CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="22035" windowHeight="10290" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="235">
   <si>
     <t>Constants</t>
   </si>
@@ -726,7 +732,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,13 +854,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -866,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -893,7 +899,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -902,14 +908,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -947,9 +956,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -982,9 +991,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,9 +1043,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1192,14 +1235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B2:N247"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1215,11 +1258,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1579,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="18"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
@@ -2898,18 +2941,18 @@
     </row>
     <row r="124" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C125" s="18"/>
+      <c r="C125" s="17"/>
       <c r="G125" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H125" s="15"/>
-      <c r="K125" s="17" t="s">
+      <c r="K125" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L125" s="18"/>
+      <c r="L125" s="17"/>
     </row>
     <row r="126" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
@@ -4038,15 +4081,14 @@
       <c r="G202" s="14"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="2:12" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="2:12" s="6" customFormat="1" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:12" s="6" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="2:12" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="2:12" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="2:12" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="9" t="s">
         <v>81</v>
       </c>
@@ -4060,7 +4102,7 @@
       </c>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
         <v>20</v>
       </c>
@@ -4080,7 +4122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>75</v>
       </c>
@@ -4098,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>39816</v>
       </c>
@@ -4108,9 +4150,7 @@
       <c r="G210" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H210" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="H210" s="9"/>
       <c r="K210" s="3">
         <v>39816</v>
       </c>
@@ -4118,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>68</v>
       </c>
@@ -4138,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>69</v>
       </c>
@@ -4158,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
         <v>187</v>
       </c>
@@ -4178,7 +4218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
         <v>188</v>
       </c>
@@ -4198,7 +4238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
         <v>189</v>
       </c>
@@ -4218,7 +4258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
         <v>193</v>
       </c>
@@ -4238,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
         <v>194</v>
       </c>
@@ -4258,7 +4298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>195</v>
       </c>
@@ -4278,7 +4318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>197</v>
       </c>
@@ -4298,7 +4338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
         <v>202</v>
       </c>
@@ -4318,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>198</v>
       </c>
@@ -4338,7 +4378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G222" s="7" t="s">
         <v>197</v>
       </c>
@@ -4346,7 +4386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G223" s="7" t="s">
         <v>202</v>
       </c>
@@ -4354,7 +4394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G224" s="1" t="s">
         <v>198</v>
       </c>
@@ -4362,12 +4402,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B227" s="15" t="s">
         <v>199</v>
       </c>
@@ -4381,7 +4421,7 @@
       </c>
       <c r="L227" s="15"/>
     </row>
-    <row r="228" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B228" s="12" t="s">
         <v>20</v>
       </c>
@@ -4401,7 +4441,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="229" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B229" s="12" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +4461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B230" s="11">
         <v>39449</v>
       </c>
@@ -4441,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B231" s="11">
         <v>39816</v>
       </c>
@@ -4461,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B232" s="11">
         <v>40238</v>
       </c>
@@ -4481,7 +4521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B233" s="11">
         <v>40269</v>
       </c>
@@ -4501,7 +4541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B234" s="11">
         <v>39818</v>
       </c>
@@ -4521,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B235" s="11">
         <v>39819</v>
       </c>
@@ -4541,7 +4581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B236" s="11">
         <v>39831</v>
       </c>
@@ -4561,7 +4601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11">
         <v>40180</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11">
         <v>39888</v>
       </c>
@@ -4601,7 +4641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>200</v>
       </c>
@@ -4621,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11">
         <v>41334</v>
       </c>
@@ -4641,7 +4681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11">
         <v>41653</v>
       </c>
@@ -4661,7 +4701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11">
         <v>40920</v>
       </c>
@@ -4681,29 +4721,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G125:H125"/>
     <mergeCell ref="G164:H164"/>
@@ -4711,6 +4735,22 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="G106:H106"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="G184:H184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4718,14 +4758,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5416,23 +5465,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
